--- a/Plan/Budget.xlsx
+++ b/Plan/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiming/Workspace/Lecture/PHY207 Lab/Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiming/Workspace/Lecture/PHY207 Lab/Technical_Document/Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49166945-606A-5349-89A2-6DEC48DBFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C153FF8-CEAD-1648-8204-8F1292DCDA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{04498B51-DC34-E84E-80DB-648C26F4E404}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{04498B51-DC34-E84E-80DB-648C26F4E404}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>24/4/2022</t>
+  </si>
+  <si>
+    <t>cuvette cover</t>
+  </si>
+  <si>
+    <t>blackout carpet</t>
   </si>
 </sst>
 </file>
@@ -616,13 +622,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -665,10 +670,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -679,15 +682,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -700,6 +694,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,13 +731,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -758,7 +761,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="8890000"/>
+          <a:off x="1600200" y="9398000"/>
           <a:ext cx="13893800" cy="7886700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1068,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03F586C-360D-F64B-B5D7-9B77DBAF3295}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,33 +1089,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="74"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1120,733 +1123,778 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="69"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="63">
         <v>1.5</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="E4" s="69"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="25"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
-        <v>1</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>2</v>
       </c>
-      <c r="D8" s="28">
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
         <f>D8/$B$4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <f>E8*C8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="27">
-        <v>1</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="29"/>
+      <c r="G8" s="26">
+        <v>1</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>5</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <f>13.4/5</f>
         <v>2.68</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <f>D9/$B$4</f>
         <v>1.7866666666666668</v>
       </c>
-      <c r="F9" s="28">
-        <f t="shared" ref="F9:F32" si="0">E9*C9</f>
+      <c r="F9" s="27">
+        <f t="shared" ref="F9:F34" si="0">E9*C9</f>
         <v>8.9333333333333336</v>
       </c>
-      <c r="G9" s="27">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="29"/>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28">
+      <c r="C10" s="26">
+        <v>1</v>
+      </c>
+      <c r="D10" s="27">
         <v>11.42</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <f>D10/$B$4</f>
         <v>7.6133333333333333</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <f t="shared" si="0"/>
         <v>7.6133333333333333</v>
       </c>
-      <c r="G10" s="27">
-        <v>1</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="29"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="34">
         <v>4</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="36">
-        <v>1</v>
-      </c>
-      <c r="D13" s="33">
-        <v>200</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="C13" s="35">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>230</v>
+      </c>
+      <c r="E13" s="32">
         <f>D13/$B$4</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="F13" s="33">
-        <f t="shared" si="0"/>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="G13" s="36">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="0"/>
+        <v>153.33333333333334</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>5</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>20</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <f>6/20</f>
         <v>0.3</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <f>D14/$B$4</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <f t="shared" si="0"/>
         <v>3.9999999999999996</v>
       </c>
-      <c r="G14" s="36">
-        <v>1</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="G14" s="35">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="34">
         <v>6</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>22</v>
+      </c>
+      <c r="E15" s="32">
+        <f>D15/$B$4</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" ref="F15" si="1">E15*C15</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>7</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="C16" s="35">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
         <v>20.8</v>
       </c>
-      <c r="E15" s="33">
-        <f>D15/$B$4</f>
+      <c r="E16" s="32">
+        <f>D16/$B$4</f>
         <v>13.866666666666667</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F16" s="32">
         <f t="shared" si="0"/>
         <v>13.866666666666667</v>
       </c>
-      <c r="G15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39" t="s">
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="43">
-        <v>7</v>
-      </c>
-      <c r="B18" s="44" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
+        <v>8</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="44">
-        <v>1</v>
-      </c>
-      <c r="D18" s="41">
+      <c r="C19" s="43">
+        <v>1</v>
+      </c>
+      <c r="D19" s="40">
         <v>13.8</v>
       </c>
-      <c r="E18" s="41">
-        <f>D18/$B$4</f>
+      <c r="E19" s="40">
+        <f t="shared" ref="E19:E25" si="2">D19/$B$4</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F19" s="40">
         <f t="shared" si="0"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="G18" s="44">
-        <v>0</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="43">
-        <v>8</v>
-      </c>
-      <c r="B19" s="44" t="s">
+      <c r="G19" s="43">
+        <v>0</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="42">
+        <v>9</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="44">
-        <v>1</v>
-      </c>
-      <c r="D19" s="41">
-        <v>0</v>
-      </c>
-      <c r="E19" s="41">
-        <f>D19/$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="44">
-        <v>0</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="43">
-        <v>9</v>
-      </c>
-      <c r="B20" s="44" t="s">
+      <c r="C20" s="43">
+        <v>1</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
+        <v>0</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
+        <v>10</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="44">
-        <v>1</v>
-      </c>
-      <c r="D20" s="41">
-        <v>0</v>
-      </c>
-      <c r="E20" s="41">
-        <f>D20/$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="44">
-        <v>0</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="43">
+      <c r="C21" s="43">
+        <v>1</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="43">
+        <v>0</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
+        <v>11</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="43">
+        <v>2</v>
+      </c>
+      <c r="D22" s="40">
+        <v>0</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="43">
+        <v>0</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="42">
+        <v>12</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="43">
+        <v>1</v>
+      </c>
+      <c r="D23" s="40">
+        <v>0</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
+        <v>0</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="42">
+        <v>13</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="43">
+        <v>1</v>
+      </c>
+      <c r="D24" s="40">
+        <v>0</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="43">
+        <v>0</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="42">
+        <v>14</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="43">
+        <v>1</v>
+      </c>
+      <c r="D25" s="40">
+        <v>0</v>
+      </c>
+      <c r="E25" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="47">
+        <v>14</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="47">
+        <v>5</v>
+      </c>
+      <c r="D28" s="47">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E28" s="47">
+        <f>D28/$B$4</f>
+        <v>2.7333333333333329</v>
+      </c>
+      <c r="F28" s="47">
+        <f t="shared" ref="F28" si="3">E28*C28</f>
+        <v>13.666666666666664</v>
+      </c>
+      <c r="G28" s="47">
+        <v>1</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="48"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="47">
+        <v>15</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="47">
         <v>10</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="44">
+      <c r="D29" s="47">
+        <v>2.9</v>
+      </c>
+      <c r="E29" s="47">
+        <f>D29/$B$4</f>
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" si="0"/>
+        <v>19.333333333333332</v>
+      </c>
+      <c r="G29" s="47">
+        <v>1</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="47">
+        <v>16</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="47">
         <v>2</v>
       </c>
-      <c r="D21" s="41">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41">
-        <f>D21/$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
-        <v>0</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="43">
-        <v>11</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="44">
-        <v>1</v>
-      </c>
-      <c r="D22" s="41">
-        <v>0</v>
-      </c>
-      <c r="E22" s="41">
-        <f>D22/$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="44">
-        <v>0</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="43">
-        <v>12</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="44">
-        <v>1</v>
-      </c>
-      <c r="D23" s="41">
-        <v>0</v>
-      </c>
-      <c r="E23" s="41">
-        <f>D23/$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="44">
-        <v>0</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="43">
-        <v>13</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="44">
-        <v>1</v>
-      </c>
-      <c r="D24" s="41">
-        <v>0</v>
-      </c>
-      <c r="E24" s="41">
-        <f>D24/$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="44">
-        <v>0</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="50"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="52">
-        <v>10</v>
-      </c>
-      <c r="D27" s="49">
-        <v>2.9</v>
-      </c>
-      <c r="E27" s="49">
-        <f>D27/$B$4</f>
-        <v>1.9333333333333333</v>
-      </c>
-      <c r="F27" s="49">
-        <f t="shared" si="0"/>
-        <v>19.333333333333332</v>
-      </c>
-      <c r="G27" s="52">
-        <v>1</v>
-      </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="52">
-        <v>2</v>
-      </c>
-      <c r="D28" s="49">
+      <c r="D30" s="47">
         <v>7.61</v>
       </c>
-      <c r="E28" s="49">
-        <f>D28/$B$4</f>
+      <c r="E30" s="47">
+        <f>D30/$B$4</f>
         <v>5.0733333333333333</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F30" s="47">
         <f t="shared" si="0"/>
         <v>10.146666666666667</v>
       </c>
-      <c r="G28" s="52">
-        <v>1</v>
-      </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55" t="s">
+      <c r="G30" s="47">
+        <v>1</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="58"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="55"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="56">
+        <v>17</v>
+      </c>
+      <c r="B33" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="60">
-        <v>1</v>
-      </c>
-      <c r="D31" s="57">
+      <c r="C33" s="57">
+        <v>1</v>
+      </c>
+      <c r="D33" s="54">
         <v>50</v>
       </c>
-      <c r="E31" s="57">
-        <f>D31/$B$4</f>
+      <c r="E33" s="54">
+        <f>D33/$B$4</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F33" s="54">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="G31" s="60">
-        <v>1</v>
-      </c>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="60" t="s">
+      <c r="G33" s="57">
+        <v>1</v>
+      </c>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="56">
+        <v>18</v>
+      </c>
+      <c r="B34" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="60">
-        <v>1</v>
-      </c>
-      <c r="D32" s="57">
+      <c r="C34" s="57">
+        <v>1</v>
+      </c>
+      <c r="D34" s="54">
         <v>20</v>
       </c>
-      <c r="E32" s="57">
-        <f>D32/$B$4</f>
+      <c r="E34" s="54">
+        <f>D34/$B$4</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F34" s="54">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="G32" s="60">
-        <v>1</v>
-      </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="G34" s="57">
+        <v>1</v>
+      </c>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15">
-        <f>SUM(F7:F33)</f>
-        <v>253.09333333333336</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D40"/>
-      <c r="E40"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14">
+        <f>SUM(F7:F35)</f>
+        <v>301.42666666666662</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D41"/>
@@ -1911,6 +1959,14 @@
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56"/>
       <c r="E56"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D58"/>
+      <c r="E58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Plan/Budget.xlsx
+++ b/Plan/Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiming/Workspace/Lecture/PHY207 Lab/Technical_Document/Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C153FF8-CEAD-1648-8204-8F1292DCDA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89279CD2-89A0-F34B-B712-02DF26AE8181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{04498B51-DC34-E84E-80DB-648C26F4E404}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{04498B51-DC34-E84E-80DB-648C26F4E404}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Memo</t>
   </si>
   <si>
-    <t>650nm red laser emitter</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
@@ -157,13 +154,19 @@
     <t>Update Date</t>
   </si>
   <si>
-    <t>24/4/2022</t>
-  </si>
-  <si>
     <t>cuvette cover</t>
   </si>
   <si>
     <t>blackout carpet</t>
+  </si>
+  <si>
+    <t>1/7/2022</t>
+  </si>
+  <si>
+    <t>7/1/2022</t>
+  </si>
+  <si>
+    <t>laser emitter</t>
   </si>
 </sst>
 </file>
@@ -729,23 +732,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825889</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>339393</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8449502-CE09-CE51-A111-49D68862DB68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F92D41-C4D5-4473-C2B3-102BDF080750}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -761,8 +764,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="9398000"/>
-          <a:ext cx="13893800" cy="7886700"/>
+          <a:off x="13884294" y="1659571"/>
+          <a:ext cx="7772400" cy="4696121"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03F586C-360D-F64B-B5D7-9B77DBAF3295}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1093,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -1104,16 +1107,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="3"/>
@@ -1124,10 +1127,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="60"/>
       <c r="D3" s="66"/>
@@ -1136,16 +1139,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="63">
         <v>1.5</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="69"/>
       <c r="J4" s="5"/>
@@ -1179,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>4</v>
@@ -1197,7 +1200,7 @@
     <row r="7" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
@@ -1213,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="26">
         <v>2</v>
@@ -1241,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="26">
         <v>5</v>
@@ -1270,10 +1273,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C10" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="27">
         <v>11.42</v>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="F10" s="27">
         <f t="shared" si="0"/>
-        <v>7.6133333333333333</v>
+        <v>15.226666666666667</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -1311,7 +1314,7 @@
     <row r="12" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
@@ -1330,21 +1333,21 @@
         <v>4</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="35">
         <v>1</v>
       </c>
       <c r="D13" s="32">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="E13" s="32">
         <f>D13/$B$4</f>
-        <v>153.33333333333334</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="0"/>
-        <v>153.33333333333334</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="G13" s="35">
         <v>1</v>
@@ -1358,22 +1361,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="32">
-        <f>6/20</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="32">
         <f>D14/$B$4</f>
-        <v>0.19999999999999998</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="0"/>
-        <v>3.9999999999999996</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="G14" s="35">
         <v>1</v>
@@ -1387,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="35">
         <v>1</v>
@@ -1415,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="35">
         <v>1</v>
@@ -1456,7 +1458,7 @@
     <row r="18" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
@@ -1475,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="43">
         <v>1</v>
@@ -1492,7 +1494,7 @@
         <v>9.2000000000000011</v>
       </c>
       <c r="G19" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
@@ -1503,7 +1505,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="43">
         <v>1</v>
@@ -1531,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="43">
         <v>1</v>
@@ -1559,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="43">
         <v>2</v>
@@ -1587,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="43">
         <v>1</v>
@@ -1615,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="43">
         <v>1</v>
@@ -1643,7 +1645,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="43">
         <v>1</v>
@@ -1684,7 +1686,7 @@
     <row r="27" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -1700,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="47">
         <v>5</v>
@@ -1728,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="47">
         <v>10</v>
@@ -1756,7 +1758,7 @@
         <v>16</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="47">
         <v>2</v>
@@ -1797,7 +1799,7 @@
     <row r="32" spans="1:10" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="51"/>
       <c r="B32" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="53"/>
@@ -1816,7 +1818,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="57">
         <v>1</v>
@@ -1829,8 +1831,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="F33" s="54">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="G33" s="57">
         <v>1</v>
@@ -1844,7 +1845,7 @@
         <v>18</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="57">
         <v>1</v>
@@ -1857,8 +1858,7 @@
         <v>13.333333333333334</v>
       </c>
       <c r="F34" s="54">
-        <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G34" s="57">
         <v>1</v>
@@ -1882,14 +1882,14 @@
     <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14">
         <f>SUM(F7:F35)</f>
-        <v>301.42666666666662</v>
+        <v>251.04</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
